--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H2">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I2">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J2">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N2">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q2">
-        <v>0.6406003842177779</v>
+        <v>17.76462639180378</v>
       </c>
       <c r="R2">
-        <v>5.765403457960001</v>
+        <v>159.881637526234</v>
       </c>
       <c r="S2">
-        <v>9.687899836038754E-06</v>
+        <v>0.0003418061458562179</v>
       </c>
       <c r="T2">
-        <v>9.687899836038752E-06</v>
+        <v>0.0003418061458562178</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H3">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I3">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J3">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N3">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q3">
-        <v>1593.774948711258</v>
+        <v>1847.681628305958</v>
       </c>
       <c r="R3">
-        <v>14343.97453840132</v>
+        <v>16629.13465475362</v>
       </c>
       <c r="S3">
-        <v>0.02410290790436584</v>
+        <v>0.03555092700581554</v>
       </c>
       <c r="T3">
-        <v>0.02410290790436583</v>
+        <v>0.03555092700581554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H4">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I4">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J4">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N4">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q4">
-        <v>2144.5497080193</v>
+        <v>0.3790003096244445</v>
       </c>
       <c r="R4">
-        <v>19300.9473721737</v>
+        <v>3.411002786620001</v>
       </c>
       <c r="S4">
-        <v>0.03243236076117321</v>
+        <v>7.292280302095954E-06</v>
       </c>
       <c r="T4">
-        <v>0.0324323607611732</v>
+        <v>7.292280302095952E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H5">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I5">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J5">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N5">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="O5">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P5">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q5">
-        <v>1136.562027928217</v>
+        <v>1846.274364127968</v>
       </c>
       <c r="R5">
-        <v>10229.05825135395</v>
+        <v>16616.46927715171</v>
       </c>
       <c r="S5">
-        <v>0.01718840536984503</v>
+        <v>0.03552385007583842</v>
       </c>
       <c r="T5">
-        <v>0.01718840536984503</v>
+        <v>0.03552385007583841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.07599633333333</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H6">
-        <v>165.227989</v>
+        <v>25.292917</v>
       </c>
       <c r="I6">
-        <v>0.3562077701068512</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J6">
-        <v>0.3562077701068512</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05619066666666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N6">
-        <v>0.168572</v>
+        <v>385.837593</v>
       </c>
       <c r="O6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q6">
-        <v>3.094756951300889</v>
+        <v>1084.328690580976</v>
       </c>
       <c r="R6">
-        <v>27.852812561708</v>
+        <v>9758.958215228782</v>
       </c>
       <c r="S6">
-        <v>4.680249356655884E-05</v>
+        <v>0.02086338335490149</v>
       </c>
       <c r="T6">
-        <v>4.680249356655884E-05</v>
+        <v>0.02086338335490149</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H7">
         <v>165.227989</v>
       </c>
       <c r="I7">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J7">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>139.7989746666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N7">
-        <v>419.396924</v>
+        <v>6.321202</v>
       </c>
       <c r="O7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q7">
-        <v>7699.567816145093</v>
+        <v>116.0488327247531</v>
       </c>
       <c r="R7">
-        <v>69296.11034530583</v>
+        <v>1044.439494522778</v>
       </c>
       <c r="S7">
-        <v>0.1164417687240145</v>
+        <v>0.002232875793158359</v>
       </c>
       <c r="T7">
-        <v>0.1164417687240145</v>
+        <v>0.002232875793158359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H8">
         <v>165.227989</v>
       </c>
       <c r="I8">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J8">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>188.11053</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N8">
-        <v>564.33159</v>
+        <v>657.462113</v>
       </c>
       <c r="O8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q8">
-        <v>10360.37486054139</v>
+        <v>12070.12697496453</v>
       </c>
       <c r="R8">
-        <v>93243.3737448725</v>
+        <v>108631.1427746808</v>
       </c>
       <c r="S8">
-        <v>0.1566815699545649</v>
+        <v>0.23223925402739</v>
       </c>
       <c r="T8">
-        <v>0.1566815699545649</v>
+        <v>0.23223925402739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H9">
         <v>165.227989</v>
       </c>
       <c r="I9">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J9">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>99.694255</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N9">
-        <v>299.082765</v>
+        <v>0.13486</v>
       </c>
       <c r="O9">
-        <v>0.2331157147689297</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P9">
-        <v>0.2331157147689298</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q9">
-        <v>5490.760422834398</v>
+        <v>2.475849621837778</v>
       </c>
       <c r="R9">
-        <v>49416.84380550958</v>
+        <v>22.28264659654</v>
       </c>
       <c r="S9">
-        <v>0.08303762893470522</v>
+        <v>4.763740020732392E-05</v>
       </c>
       <c r="T9">
-        <v>0.08303762893470523</v>
+        <v>4.763740020732392E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.47993833333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H10">
-        <v>40.439815</v>
+        <v>165.227989</v>
       </c>
       <c r="I10">
-        <v>0.08718242237205703</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J10">
-        <v>0.08718242237205705</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05619066666666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N10">
-        <v>0.168572</v>
+        <v>656.961365</v>
       </c>
       <c r="O10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q10">
-        <v>0.7574467215755555</v>
+        <v>12060.93390996055</v>
       </c>
       <c r="R10">
-        <v>6.817020494179999</v>
+        <v>108548.405189645</v>
       </c>
       <c r="S10">
-        <v>1.145498527716348E-05</v>
+        <v>0.2320623718319353</v>
       </c>
       <c r="T10">
-        <v>1.145498527716348E-05</v>
+        <v>0.2320623718319353</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.47993833333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H11">
-        <v>40.439815</v>
+        <v>165.227989</v>
       </c>
       <c r="I11">
-        <v>0.08718242237205703</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J11">
-        <v>0.08718242237205705</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7989746666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N11">
-        <v>419.396924</v>
+        <v>385.837593</v>
       </c>
       <c r="O11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q11">
-        <v>1884.481557569895</v>
+        <v>7083.463285776721</v>
       </c>
       <c r="R11">
-        <v>16960.33401812906</v>
+        <v>63751.16957199048</v>
       </c>
       <c r="S11">
-        <v>0.02849930943281003</v>
+        <v>0.1362917086813848</v>
       </c>
       <c r="T11">
-        <v>0.02849930943281003</v>
+        <v>0.1362917086813848</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H12">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I12">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J12">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>188.11053</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N12">
-        <v>564.33159</v>
+        <v>6.321202</v>
       </c>
       <c r="O12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q12">
-        <v>2535.71834425065</v>
+        <v>2.448970614176667</v>
       </c>
       <c r="R12">
-        <v>22821.46509825585</v>
+        <v>22.04073552759</v>
       </c>
       <c r="S12">
-        <v>0.03834806524742104</v>
+        <v>4.712022580632874E-05</v>
       </c>
       <c r="T12">
-        <v>0.03834806524742104</v>
+        <v>4.712022580632874E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H13">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I13">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J13">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,43 +1243,43 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>99.694255</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N13">
-        <v>299.082765</v>
+        <v>657.462113</v>
       </c>
       <c r="O13">
-        <v>0.2331157147689297</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P13">
-        <v>0.2331157147689298</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q13">
-        <v>1343.872409587608</v>
+        <v>254.7150675886483</v>
       </c>
       <c r="R13">
-        <v>12094.85168628847</v>
+        <v>2292.435608297835</v>
       </c>
       <c r="S13">
-        <v>0.0203235927065488</v>
+        <v>0.004900929162470368</v>
       </c>
       <c r="T13">
-        <v>0.02032359270654881</v>
+        <v>0.004900929162470369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>57.46446033333334</v>
+        <v>1.162265</v>
       </c>
       <c r="H14">
-        <v>172.393381</v>
+        <v>3.486795</v>
       </c>
       <c r="I14">
-        <v>0.3716553242513339</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J14">
-        <v>0.3716553242513339</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.05619066666666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N14">
-        <v>0.168572</v>
+        <v>0.13486</v>
       </c>
       <c r="O14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q14">
-        <v>3.228966335770223</v>
+        <v>0.05224768596666667</v>
       </c>
       <c r="R14">
-        <v>29.060697021932</v>
+        <v>0.4702291737</v>
       </c>
       <c r="S14">
-        <v>4.883216308569748E-05</v>
+        <v>1.005288812514059E-06</v>
       </c>
       <c r="T14">
-        <v>4.883216308569748E-05</v>
+        <v>1.005288812514059E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>57.46446033333334</v>
+        <v>1.162265</v>
       </c>
       <c r="H15">
-        <v>172.393381</v>
+        <v>3.486795</v>
       </c>
       <c r="I15">
-        <v>0.3716553242513339</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J15">
-        <v>0.3716553242513339</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>139.7989746666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N15">
-        <v>419.396924</v>
+        <v>656.961365</v>
       </c>
       <c r="O15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q15">
-        <v>8033.472634373339</v>
+        <v>254.5210669639083</v>
       </c>
       <c r="R15">
-        <v>72301.25370936005</v>
+        <v>2290.689602675175</v>
       </c>
       <c r="S15">
-        <v>0.1214914635313567</v>
+        <v>0.004897196429545196</v>
       </c>
       <c r="T15">
-        <v>0.1214914635313567</v>
+        <v>0.004897196429545196</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>57.46446033333334</v>
+        <v>1.162265</v>
       </c>
       <c r="H16">
-        <v>172.393381</v>
+        <v>3.486795</v>
       </c>
       <c r="I16">
-        <v>0.3716553242513339</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J16">
-        <v>0.3716553242513339</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>188.11053</v>
+        <v>128.612531</v>
       </c>
       <c r="N16">
-        <v>564.33159</v>
+        <v>385.837593</v>
       </c>
       <c r="O16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q16">
-        <v>10809.67008946731</v>
+        <v>149.481843342715</v>
       </c>
       <c r="R16">
-        <v>97287.0308052058</v>
+        <v>1345.336590084435</v>
       </c>
       <c r="S16">
-        <v>0.1634763319963634</v>
+        <v>0.002876154646969099</v>
       </c>
       <c r="T16">
-        <v>0.1634763319963634</v>
+        <v>0.002876154646969099</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H17">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I17">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J17">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>99.694255</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N17">
-        <v>299.082765</v>
+        <v>6.321202</v>
       </c>
       <c r="O17">
-        <v>0.2331157147689297</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P17">
-        <v>0.2331157147689298</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q17">
-        <v>5728.876561908718</v>
+        <v>50.79730218426111</v>
       </c>
       <c r="R17">
-        <v>51559.88905717847</v>
+        <v>457.17571965835</v>
       </c>
       <c r="S17">
-        <v>0.08663869656052803</v>
+        <v>0.0009773822255843649</v>
       </c>
       <c r="T17">
-        <v>0.08663869656052804</v>
+        <v>0.0009773822255843649</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.664875</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H18">
-        <v>7.994625</v>
+        <v>72.324175</v>
       </c>
       <c r="I18">
-        <v>0.0172352611765461</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J18">
-        <v>0.0172352611765461</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05619066666666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N18">
-        <v>0.168572</v>
+        <v>657.462113</v>
       </c>
       <c r="O18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q18">
-        <v>0.1497411028333333</v>
+        <v>5283.37832405353</v>
       </c>
       <c r="R18">
-        <v>1.3476699255</v>
+        <v>47550.40491648178</v>
       </c>
       <c r="S18">
-        <v>2.264558125981613E-06</v>
+        <v>0.1016565810175563</v>
       </c>
       <c r="T18">
-        <v>2.264558125981613E-06</v>
+        <v>0.1016565810175564</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.664875</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H19">
-        <v>7.994625</v>
+        <v>72.324175</v>
       </c>
       <c r="I19">
-        <v>0.0172352611765461</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J19">
-        <v>0.0172352611765461</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>139.7989746666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N19">
-        <v>419.396924</v>
+        <v>0.13486</v>
       </c>
       <c r="O19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q19">
-        <v>372.5467926148334</v>
+        <v>1.083737582277778</v>
       </c>
       <c r="R19">
-        <v>3352.9211335335</v>
+        <v>9.753638240500001</v>
       </c>
       <c r="S19">
-        <v>0.005634083431743664</v>
+        <v>2.085200994087951E-05</v>
       </c>
       <c r="T19">
-        <v>0.005634083431743664</v>
+        <v>2.085200994087951E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.664875</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H20">
-        <v>7.994625</v>
+        <v>72.324175</v>
       </c>
       <c r="I20">
-        <v>0.0172352611765461</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J20">
-        <v>0.0172352611765461</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>188.11053</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N20">
-        <v>564.33159</v>
+        <v>656.961365</v>
       </c>
       <c r="O20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q20">
-        <v>501.29104863375</v>
+        <v>5279.354303388764</v>
       </c>
       <c r="R20">
-        <v>4511.61943770375</v>
+        <v>47514.18873049887</v>
       </c>
       <c r="S20">
-        <v>0.007581102958276724</v>
+        <v>0.1015791555224216</v>
       </c>
       <c r="T20">
-        <v>0.007581102958276724</v>
+        <v>0.1015791555224216</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.664875</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H21">
-        <v>7.994625</v>
+        <v>72.324175</v>
       </c>
       <c r="I21">
-        <v>0.0172352611765461</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J21">
-        <v>0.0172352611765461</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>99.694255</v>
+        <v>128.612531</v>
       </c>
       <c r="N21">
-        <v>299.082765</v>
+        <v>385.837593</v>
       </c>
       <c r="O21">
-        <v>0.2331157147689297</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P21">
-        <v>0.2331157147689298</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q21">
-        <v>265.672727793125</v>
+        <v>3100.598399745642</v>
       </c>
       <c r="R21">
-        <v>2391.054550138125</v>
+        <v>27905.38559771077</v>
       </c>
       <c r="S21">
-        <v>0.004017810228399729</v>
+        <v>0.05965808486431131</v>
       </c>
       <c r="T21">
-        <v>0.004017810228399729</v>
+        <v>0.05965808486431131</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.53186966666667</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H22">
-        <v>43.595609</v>
+        <v>4.673369</v>
       </c>
       <c r="I22">
-        <v>0.09398586015799161</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J22">
-        <v>0.09398586015799161</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,33 +1801,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N22">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q22">
-        <v>0.816555444483111</v>
+        <v>3.282367718837556</v>
       </c>
       <c r="R22">
-        <v>7.348999000347999</v>
+        <v>29.541309469538</v>
       </c>
       <c r="S22">
-        <v>1.234889574158477E-05</v>
+        <v>6.315547732410329E-05</v>
       </c>
       <c r="T22">
-        <v>1.234889574158477E-05</v>
+        <v>6.315547732410329E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.53186966666667</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H23">
-        <v>43.595609</v>
+        <v>4.673369</v>
       </c>
       <c r="I23">
-        <v>0.09398586015799161</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J23">
-        <v>0.09398586015799161</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N23">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q23">
-        <v>2031.540479389635</v>
+        <v>341.3958952854108</v>
       </c>
       <c r="R23">
-        <v>18283.86431450671</v>
+        <v>3072.563057568697</v>
       </c>
       <c r="S23">
-        <v>0.03072330451568084</v>
+        <v>0.006568740180906816</v>
       </c>
       <c r="T23">
-        <v>0.03072330451568084</v>
+        <v>0.006568740180906818</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.53186966666667</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H24">
-        <v>43.595609</v>
+        <v>4.673369</v>
       </c>
       <c r="I24">
-        <v>0.09398586015799161</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J24">
-        <v>0.09398586015799161</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N24">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q24">
-        <v>2733.59770488759</v>
+        <v>0.0700278381488889</v>
       </c>
       <c r="R24">
-        <v>24602.37934398831</v>
+        <v>0.6302505433400001</v>
       </c>
       <c r="S24">
-        <v>0.04134062577766629</v>
+        <v>1.347393687455103E-06</v>
       </c>
       <c r="T24">
-        <v>0.04134062577766629</v>
+        <v>1.347393687455103E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.557789666666667</v>
+      </c>
+      <c r="H25">
+        <v>4.673369</v>
+      </c>
+      <c r="I25">
+        <v>0.01705190487376294</v>
+      </c>
+      <c r="J25">
+        <v>0.01705190487376294</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N25">
+        <v>656.961365</v>
+      </c>
+      <c r="O25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q25">
+        <v>341.1358752654094</v>
+      </c>
+      <c r="R25">
+        <v>3070.222877388685</v>
+      </c>
+      <c r="S25">
+        <v>0.00656373718005997</v>
+      </c>
+      <c r="T25">
+        <v>0.00656373718005997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.557789666666667</v>
+      </c>
+      <c r="H26">
+        <v>4.673369</v>
+      </c>
+      <c r="I26">
+        <v>0.01705190487376294</v>
+      </c>
+      <c r="J26">
+        <v>0.01705190487376294</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>128.612531</v>
+      </c>
+      <c r="N26">
+        <v>385.837593</v>
+      </c>
+      <c r="O26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q26">
+        <v>200.3512717956464</v>
+      </c>
+      <c r="R26">
+        <v>1803.161446160817</v>
+      </c>
+      <c r="S26">
+        <v>0.0038549246417846</v>
+      </c>
+      <c r="T26">
+        <v>0.0038549246417846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>14.53186966666667</v>
-      </c>
-      <c r="H25">
-        <v>43.595609</v>
-      </c>
-      <c r="I25">
-        <v>0.09398586015799161</v>
-      </c>
-      <c r="J25">
-        <v>0.09398586015799161</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>99.694255</v>
-      </c>
-      <c r="N25">
-        <v>299.082765</v>
-      </c>
-      <c r="O25">
-        <v>0.2331157147689297</v>
-      </c>
-      <c r="P25">
-        <v>0.2331157147689298</v>
-      </c>
-      <c r="Q25">
-        <v>1448.743920175431</v>
-      </c>
-      <c r="R25">
-        <v>13038.69528157888</v>
-      </c>
-      <c r="S25">
-        <v>0.02190958096890289</v>
-      </c>
-      <c r="T25">
-        <v>0.02190958096890289</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.020674666666667</v>
+      </c>
+      <c r="H27">
+        <v>3.062024</v>
+      </c>
+      <c r="I27">
+        <v>0.01117252713602951</v>
+      </c>
+      <c r="J27">
+        <v>0.01117252713602951</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>2.107067333333334</v>
+      </c>
+      <c r="N27">
+        <v>6.321202</v>
+      </c>
+      <c r="O27">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="P27">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="Q27">
+        <v>2.150630248094223</v>
+      </c>
+      <c r="R27">
+        <v>19.355672232848</v>
+      </c>
+      <c r="S27">
+        <v>4.137990971777749E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.137990971777749E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.020674666666667</v>
+      </c>
+      <c r="H28">
+        <v>3.062024</v>
+      </c>
+      <c r="I28">
+        <v>0.01117252713602951</v>
+      </c>
+      <c r="J28">
+        <v>0.01117252713602951</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>219.1540376666667</v>
+      </c>
+      <c r="N28">
+        <v>657.462113</v>
+      </c>
+      <c r="O28">
+        <v>0.3852203158260555</v>
+      </c>
+      <c r="P28">
+        <v>0.3852203158260556</v>
+      </c>
+      <c r="Q28">
+        <v>223.6849743440791</v>
+      </c>
+      <c r="R28">
+        <v>2013.164769096712</v>
+      </c>
+      <c r="S28">
+        <v>0.004303884431916464</v>
+      </c>
+      <c r="T28">
+        <v>0.004303884431916465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.020674666666667</v>
+      </c>
+      <c r="H29">
+        <v>3.062024</v>
+      </c>
+      <c r="I29">
+        <v>0.01117252713602951</v>
+      </c>
+      <c r="J29">
+        <v>0.01117252713602951</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.04495333333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.13486</v>
+      </c>
+      <c r="O29">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="P29">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="Q29">
+        <v>0.04588272851555556</v>
+      </c>
+      <c r="R29">
+        <v>0.41294455664</v>
+      </c>
+      <c r="S29">
+        <v>8.828217520242941E-07</v>
+      </c>
+      <c r="T29">
+        <v>8.828217520242941E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.020674666666667</v>
+      </c>
+      <c r="H30">
+        <v>3.062024</v>
+      </c>
+      <c r="I30">
+        <v>0.01117252713602951</v>
+      </c>
+      <c r="J30">
+        <v>0.01117252713602951</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N30">
+        <v>656.961365</v>
+      </c>
+      <c r="O30">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P30">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q30">
+        <v>223.5146074114178</v>
+      </c>
+      <c r="R30">
+        <v>2011.63146670276</v>
+      </c>
+      <c r="S30">
+        <v>0.004300606430828798</v>
+      </c>
+      <c r="T30">
+        <v>0.004300606430828798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.020674666666667</v>
+      </c>
+      <c r="H31">
+        <v>3.062024</v>
+      </c>
+      <c r="I31">
+        <v>0.01117252713602951</v>
+      </c>
+      <c r="J31">
+        <v>0.01117252713602951</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>128.612531</v>
+      </c>
+      <c r="N31">
+        <v>385.837593</v>
+      </c>
+      <c r="O31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q31">
+        <v>131.2715522075814</v>
+      </c>
+      <c r="R31">
+        <v>1181.443969868232</v>
+      </c>
+      <c r="S31">
+        <v>0.002525773541814449</v>
+      </c>
+      <c r="T31">
+        <v>0.002525773541814449</v>
       </c>
     </row>
   </sheetData>
